--- a/pred_ohlcv/54/2019-10-19 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 DVP ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>222538.7141</v>
       </c>
       <c r="G2" t="n">
-        <v>14.28666666666666</v>
+        <v>14.29499999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D3" t="n">
         <v>13.9</v>
       </c>
       <c r="E3" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="F3" t="n">
-        <v>299930</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>14.275</v>
+        <v>14.28666666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D4" t="n">
         <v>13.9</v>
       </c>
       <c r="E4" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>299930</v>
       </c>
       <c r="G4" t="n">
-        <v>14.26666666666666</v>
+        <v>14.275</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C5" t="n">
         <v>13.9</v>
@@ -495,15 +509,18 @@
         <v>13.9</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="F5" t="n">
-        <v>994.8201</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25666666666666</v>
+        <v>14.26666666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E6" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>994.8201</v>
       </c>
       <c r="G6" t="n">
-        <v>14.24999999999999</v>
+        <v>14.25666666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>14.24333333333333</v>
+        <v>14.24999999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>14</v>
@@ -573,15 +596,18 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>14.23499999999999</v>
+        <v>14.24333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>13.8</v>
       </c>
       <c r="C9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>13.8</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>14.22499999999999</v>
+        <v>14.23499999999999</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,10 +648,10 @@
         <v>13.8</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E10" t="n">
         <v>13.8</v>
@@ -631,9 +660,12 @@
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>14.21666666666666</v>
+        <v>14.22499999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F11" t="n">
-        <v>236.2763</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>14.20499999999999</v>
+        <v>14.21666666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>236.2763</v>
       </c>
       <c r="G12" t="n">
-        <v>14.19833333333333</v>
+        <v>14.20499999999999</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>14</v>
@@ -703,15 +741,18 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>29935</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>14.19333333333333</v>
+        <v>14.19833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>13.7</v>
       </c>
       <c r="C14" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F14" t="n">
-        <v>241279.1149</v>
+        <v>29935</v>
       </c>
       <c r="G14" t="n">
-        <v>14.175</v>
+        <v>14.19333333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="C15" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D15" t="n">
         <v>13.9</v>
       </c>
       <c r="E15" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F15" t="n">
-        <v>86240.8737</v>
+        <v>241279.1149</v>
       </c>
       <c r="G15" t="n">
-        <v>14.155</v>
+        <v>14.175</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="C16" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="D16" t="n">
         <v>13.9</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="F16" t="n">
-        <v>249920</v>
+        <v>86240.8737</v>
       </c>
       <c r="G16" t="n">
-        <v>14.14333333333333</v>
+        <v>14.155</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="C17" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="D17" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="E17" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>249920</v>
       </c>
       <c r="G17" t="n">
-        <v>14.12333333333333</v>
+        <v>14.14333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C18" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D18" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F18" t="n">
-        <v>67.83580000000001</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>14.11166666666666</v>
+        <v>14.12333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C19" t="n">
         <v>13.6</v>
       </c>
       <c r="D19" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F19" t="n">
-        <v>56.1823</v>
+        <v>67.83580000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>14.1</v>
+        <v>14.11166666666666</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>13.5</v>
       </c>
       <c r="C20" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D20" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="E20" t="n">
         <v>13.5</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>56.1823</v>
       </c>
       <c r="G20" t="n">
-        <v>14.08666666666666</v>
+        <v>14.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F21" t="n">
-        <v>18.1823</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>14.08</v>
+        <v>14.08666666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>13.7</v>
       </c>
       <c r="C22" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D22" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E22" t="n">
         <v>13.7</v>
       </c>
       <c r="F22" t="n">
-        <v>58.1823</v>
+        <v>18.1823</v>
       </c>
       <c r="G22" t="n">
-        <v>14.07166666666666</v>
+        <v>14.08</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>13.7</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>58.1823</v>
       </c>
       <c r="G23" t="n">
-        <v>14.06333333333333</v>
+        <v>14.07166666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,7 +1054,7 @@
         <v>13.7</v>
       </c>
       <c r="C24" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D24" t="n">
         <v>13.8</v>
@@ -992,12 +1063,15 @@
         <v>13.7</v>
       </c>
       <c r="F24" t="n">
-        <v>5236.6704</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>14.055</v>
+        <v>14.06333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>13.7</v>
       </c>
       <c r="C25" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D25" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E25" t="n">
         <v>13.7</v>
       </c>
       <c r="F25" t="n">
-        <v>195259.6958851064</v>
+        <v>5236.6704</v>
       </c>
       <c r="G25" t="n">
-        <v>14.05166666666667</v>
+        <v>14.055</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="C26" t="n">
         <v>14.1</v>
@@ -1041,15 +1118,18 @@
         <v>14.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F26" t="n">
-        <v>44</v>
+        <v>195259.6958851064</v>
       </c>
       <c r="G26" t="n">
-        <v>14.04833333333333</v>
+        <v>14.05166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>13.9</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E27" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F27" t="n">
-        <v>66550.89109999999</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>14.04</v>
+        <v>14.04833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>13.9</v>
       </c>
       <c r="C28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F28" t="n">
-        <v>12128.1428</v>
+        <v>66550.89109999999</v>
       </c>
       <c r="G28" t="n">
-        <v>14.02833333333333</v>
+        <v>14.04</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1116,18 +1202,21 @@
         <v>13.9</v>
       </c>
       <c r="D29" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
         <v>13.9</v>
       </c>
       <c r="F29" t="n">
-        <v>997.8190352112676</v>
+        <v>12128.1428</v>
       </c>
       <c r="G29" t="n">
-        <v>14.01666666666666</v>
+        <v>14.02833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1228,7 @@
         <v>13.9</v>
       </c>
       <c r="C30" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D30" t="n">
         <v>14.2</v>
@@ -1148,12 +1237,15 @@
         <v>13.9</v>
       </c>
       <c r="F30" t="n">
-        <v>119.8186</v>
+        <v>997.8190352112676</v>
       </c>
       <c r="G30" t="n">
-        <v>14.01</v>
+        <v>14.01666666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>13.9</v>
       </c>
       <c r="C31" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="D31" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E31" t="n">
         <v>13.9</v>
       </c>
-      <c r="E31" t="n">
-        <v>13.4</v>
-      </c>
       <c r="F31" t="n">
-        <v>199922</v>
+        <v>119.8186</v>
       </c>
       <c r="G31" t="n">
-        <v>13.99166666666667</v>
+        <v>14.01</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C32" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D32" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E32" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>199922</v>
       </c>
       <c r="G32" t="n">
-        <v>13.97666666666666</v>
+        <v>13.99166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D33" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F33" t="n">
-        <v>56521.0454</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>13.96</v>
+        <v>13.97666666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>13.6</v>
       </c>
       <c r="C34" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D34" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E34" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>172498.9546</v>
+        <v>56521.0454</v>
       </c>
       <c r="G34" t="n">
-        <v>13.94</v>
+        <v>13.96</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C35" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="D35" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F35" t="n">
-        <v>5018.1814</v>
+        <v>172498.9546</v>
       </c>
       <c r="G35" t="n">
-        <v>13.92833333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C36" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D36" t="n">
         <v>13.7</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F36" t="n">
-        <v>35588.5882</v>
+        <v>5018.1814</v>
       </c>
       <c r="G36" t="n">
-        <v>13.91166666666667</v>
+        <v>13.92833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
         <v>13.7</v>
       </c>
       <c r="E37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>31378.2937</v>
+        <v>35588.5882</v>
       </c>
       <c r="G37" t="n">
-        <v>13.895</v>
+        <v>13.91166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C38" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D38" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E38" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F38" t="n">
-        <v>169891.75</v>
+        <v>31378.2937</v>
       </c>
       <c r="G38" t="n">
-        <v>13.88166666666667</v>
+        <v>13.895</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1379,15 +1495,18 @@
         <v>13.5</v>
       </c>
       <c r="E39" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F39" t="n">
-        <v>40.2962</v>
+        <v>169891.75</v>
       </c>
       <c r="G39" t="n">
-        <v>13.87</v>
+        <v>13.88166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C40" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D40" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E40" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F40" t="n">
-        <v>37</v>
+        <v>40.2962</v>
       </c>
       <c r="G40" t="n">
-        <v>13.86</v>
+        <v>13.87</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>13.6</v>
       </c>
       <c r="F41" t="n">
-        <v>3028.1814</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>13.85</v>
+        <v>13.86</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C42" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D42" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E42" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F42" t="n">
-        <v>9997.638000000001</v>
+        <v>3028.1814</v>
       </c>
       <c r="G42" t="n">
-        <v>13.83666666666667</v>
+        <v>13.85</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E43" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F43" t="n">
-        <v>46</v>
+        <v>9997.638000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>13.825</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>13.6</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G44" t="n">
-        <v>13.81333333333334</v>
+        <v>13.825</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>13.6</v>
       </c>
       <c r="C45" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D45" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E45" t="n">
         <v>13.6</v>
       </c>
       <c r="F45" t="n">
-        <v>18.136</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>13.80333333333334</v>
+        <v>13.81333333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>13.6</v>
       </c>
       <c r="C46" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D46" t="n">
         <v>13.6</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F46" t="n">
-        <v>5099.864</v>
+        <v>18.136</v>
       </c>
       <c r="G46" t="n">
-        <v>13.79333333333334</v>
+        <v>13.80333333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C47" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E47" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F47" t="n">
-        <v>555.4814</v>
+        <v>5099.864</v>
       </c>
       <c r="G47" t="n">
-        <v>13.78166666666667</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>13.5</v>
       </c>
       <c r="C48" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D48" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E48" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F48" t="n">
-        <v>43703.006</v>
+        <v>555.4814</v>
       </c>
       <c r="G48" t="n">
-        <v>13.77166666666667</v>
+        <v>13.78166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C49" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D49" t="n">
         <v>13.6</v>
       </c>
       <c r="E49" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F49" t="n">
-        <v>18.1814</v>
+        <v>43703.006</v>
       </c>
       <c r="G49" t="n">
-        <v>13.765</v>
+        <v>13.77166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>18.1814</v>
       </c>
       <c r="G50" t="n">
-        <v>13.75166666666667</v>
+        <v>13.765</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C51" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D51" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E51" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F51" t="n">
-        <v>15110</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n">
-        <v>13.73666666666667</v>
+        <v>13.75166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C52" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D52" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E52" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1527.1814</v>
+        <v>15110</v>
       </c>
       <c r="G52" t="n">
-        <v>13.72666666666667</v>
+        <v>13.73666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C53" t="n">
         <v>13.6</v>
       </c>
       <c r="D53" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E53" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F53" t="n">
-        <v>60.8186</v>
+        <v>1527.1814</v>
       </c>
       <c r="G53" t="n">
-        <v>13.71666666666667</v>
+        <v>13.72666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1924,7 @@
         <v>13.6</v>
       </c>
       <c r="C54" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D54" t="n">
         <v>13.7</v>
@@ -1772,12 +1933,15 @@
         <v>13.6</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>60.8186</v>
       </c>
       <c r="G54" t="n">
-        <v>13.715</v>
+        <v>13.71666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C55" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D55" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E55" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>13.70666666666667</v>
+        <v>13.715</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C56" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="D56" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E56" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="n">
-        <v>13.705</v>
+        <v>13.70666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>13.6</v>
       </c>
       <c r="C57" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D57" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E57" t="n">
         <v>13.6</v>
       </c>
       <c r="F57" t="n">
-        <v>18.1836</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>13.70166666666667</v>
+        <v>13.705</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>18.1836</v>
       </c>
       <c r="G58" t="n">
-        <v>13.69333333333334</v>
+        <v>13.70166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1459.684</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>13.68333333333334</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C60" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D60" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E60" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F60" t="n">
-        <v>120.4972</v>
+        <v>1459.684</v>
       </c>
       <c r="G60" t="n">
-        <v>13.67833333333334</v>
+        <v>13.68333333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>13.5</v>
       </c>
       <c r="C61" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D61" t="n">
         <v>13.7</v>
       </c>
       <c r="E61" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>120.4972</v>
       </c>
       <c r="G61" t="n">
-        <v>13.67333333333334</v>
+        <v>13.67833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>13.5</v>
       </c>
       <c r="C62" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D62" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E62" t="n">
         <v>13.5</v>
       </c>
       <c r="F62" t="n">
-        <v>18.1812</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>13.66666666666667</v>
+        <v>13.67333333333334</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>18.1812</v>
       </c>
       <c r="G63" t="n">
-        <v>13.66333333333334</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>13.6</v>
       </c>
       <c r="C64" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D64" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E64" t="n">
         <v>13.6</v>
       </c>
       <c r="F64" t="n">
-        <v>58352.5547</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>13.66000000000001</v>
+        <v>13.66333333333334</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>13.6</v>
       </c>
       <c r="F65" t="n">
-        <v>3500</v>
+        <v>58352.5547</v>
       </c>
       <c r="G65" t="n">
-        <v>13.65666666666668</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C66" t="n">
         <v>13.7</v>
@@ -2081,15 +2278,18 @@
         <v>13.7</v>
       </c>
       <c r="E66" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F66" t="n">
-        <v>43370.3649</v>
+        <v>3500</v>
       </c>
       <c r="G66" t="n">
-        <v>13.65000000000001</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>13.7</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>43370.3649</v>
       </c>
       <c r="G67" t="n">
-        <v>13.64500000000001</v>
+        <v>13.65000000000001</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>13.7</v>
       </c>
       <c r="F68" t="n">
-        <v>6021.4671</v>
+        <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>13.64000000000001</v>
+        <v>13.64500000000001</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>13.7</v>
       </c>
       <c r="F69" t="n">
-        <v>1467.0072</v>
+        <v>6021.4671</v>
       </c>
       <c r="G69" t="n">
-        <v>13.63666666666668</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>13.7</v>
       </c>
       <c r="F70" t="n">
-        <v>65287.9562</v>
+        <v>1467.0072</v>
       </c>
       <c r="G70" t="n">
-        <v>13.63500000000001</v>
+        <v>13.63666666666668</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>13.7</v>
       </c>
       <c r="F71" t="n">
-        <v>72.99270072992701</v>
+        <v>65287.9562</v>
       </c>
       <c r="G71" t="n">
         <v>13.63500000000001</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F72" t="n">
-        <v>38621.8381</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G72" t="n">
-        <v>13.62833333333335</v>
+        <v>13.63500000000001</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>13.6</v>
       </c>
       <c r="C73" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D73" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E73" t="n">
         <v>13.6</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>38621.8381</v>
       </c>
       <c r="G73" t="n">
-        <v>13.62333333333335</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C74" t="n">
         <v>13.7</v>
@@ -2289,15 +2510,18 @@
         <v>13.7</v>
       </c>
       <c r="E74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>13.62833333333335</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C75" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D75" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="F75" t="n">
-        <v>197478.3022</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
         <v>13.62833333333335</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C76" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D76" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E76" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F76" t="n">
-        <v>70</v>
+        <v>197478.3022</v>
       </c>
       <c r="G76" t="n">
-        <v>13.62500000000002</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>13.4</v>
       </c>
       <c r="C77" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D77" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E77" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F77" t="n">
-        <v>46097.9503</v>
+        <v>70</v>
       </c>
       <c r="G77" t="n">
         <v>13.62500000000002</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E78" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F78" t="n">
-        <v>17376.6737</v>
+        <v>46097.9503</v>
       </c>
       <c r="G78" t="n">
-        <v>13.62333333333335</v>
+        <v>13.62500000000002</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="C79" t="n">
         <v>13.5</v>
@@ -2419,15 +2655,18 @@
         <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F79" t="n">
-        <v>8.1812</v>
+        <v>17376.6737</v>
       </c>
       <c r="G79" t="n">
-        <v>13.62166666666668</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>13.5</v>
       </c>
       <c r="F80" t="n">
-        <v>14232.9299</v>
+        <v>8.1812</v>
       </c>
       <c r="G80" t="n">
         <v>13.62166666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D81" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F81" t="n">
-        <v>987.2649</v>
+        <v>14232.9299</v>
       </c>
       <c r="G81" t="n">
-        <v>13.62000000000002</v>
+        <v>13.62166666666668</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>13.3</v>
       </c>
       <c r="F82" t="n">
-        <v>98.6131</v>
+        <v>987.2649</v>
       </c>
       <c r="G82" t="n">
-        <v>13.61666666666668</v>
+        <v>13.62000000000002</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F83" t="n">
-        <v>7938.407129927007</v>
+        <v>98.6131</v>
       </c>
       <c r="G83" t="n">
-        <v>13.61500000000002</v>
+        <v>13.61666666666668</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C84" t="n">
         <v>13.7</v>
@@ -2549,15 +2800,18 @@
         <v>13.7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F84" t="n">
-        <v>38063.6496</v>
+        <v>7938.407129927007</v>
       </c>
       <c r="G84" t="n">
         <v>13.61500000000002</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>13.7</v>
       </c>
       <c r="F85" t="n">
-        <v>9210.21897810219</v>
+        <v>38063.6496</v>
       </c>
       <c r="G85" t="n">
-        <v>13.60833333333335</v>
+        <v>13.61500000000002</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C86" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E86" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F86" t="n">
-        <v>566</v>
+        <v>9210.21897810219</v>
       </c>
       <c r="G86" t="n">
-        <v>13.59666666666669</v>
+        <v>13.60833333333335</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C87" t="n">
         <v>13.4</v>
       </c>
       <c r="D87" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E87" t="n">
         <v>13.4</v>
       </c>
       <c r="F87" t="n">
-        <v>9279.7358</v>
+        <v>566</v>
       </c>
       <c r="G87" t="n">
-        <v>13.58666666666668</v>
+        <v>13.59666666666669</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C88" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D88" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E88" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F88" t="n">
-        <v>103210.9539</v>
+        <v>9279.7358</v>
       </c>
       <c r="G88" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58666666666668</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E89" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>103210.9539</v>
       </c>
       <c r="G89" t="n">
-        <v>13.57500000000002</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C90" t="n">
         <v>13.6</v>
@@ -2705,15 +2974,18 @@
         <v>13.6</v>
       </c>
       <c r="E90" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F90" t="n">
-        <v>2589.1635</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>13.56666666666669</v>
+        <v>13.57500000000002</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D91" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E91" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F91" t="n">
-        <v>146300.0729</v>
+        <v>2589.1635</v>
       </c>
       <c r="G91" t="n">
-        <v>13.57166666666669</v>
+        <v>13.56666666666669</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +3023,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
         <v>13.7</v>
@@ -2757,15 +3032,18 @@
         <v>13.7</v>
       </c>
       <c r="E92" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>146300.0729</v>
       </c>
       <c r="G92" t="n">
-        <v>13.57333333333335</v>
+        <v>13.57166666666669</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>13.7</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>13.57666666666669</v>
+        <v>13.57333333333335</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>13.7</v>
       </c>
       <c r="F94" t="n">
-        <v>72.99270072992701</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>13.58333333333336</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="C95" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D95" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E95" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="F95" t="n">
-        <v>269.7574</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G95" t="n">
-        <v>13.57666666666669</v>
+        <v>13.58333333333336</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C96" t="n">
         <v>13.3</v>
       </c>
-      <c r="C96" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D96" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="E96" t="n">
         <v>13.3</v>
       </c>
       <c r="F96" t="n">
-        <v>3076</v>
+        <v>269.7574</v>
       </c>
       <c r="G96" t="n">
-        <v>13.58166666666669</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C97" t="n">
         <v>13.6</v>
@@ -2890,12 +3180,15 @@
         <v>13.3</v>
       </c>
       <c r="F97" t="n">
-        <v>22609.9266</v>
+        <v>3076</v>
       </c>
       <c r="G97" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58166666666669</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2910,18 +3203,21 @@
         <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F98" t="n">
-        <v>30</v>
+        <v>22609.9266</v>
       </c>
       <c r="G98" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>13.5</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>13.58833333333336</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C100" t="n">
         <v>13.6</v>
@@ -2965,15 +3264,18 @@
         <v>13.6</v>
       </c>
       <c r="E100" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1868.7286</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58833333333336</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C101" t="n">
         <v>13.6</v>
@@ -2991,15 +3293,18 @@
         <v>13.6</v>
       </c>
       <c r="E101" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F101" t="n">
-        <v>8278.2714</v>
+        <v>1868.7286</v>
       </c>
       <c r="G101" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C102" t="n">
         <v>13.6</v>
@@ -3017,15 +3322,18 @@
         <v>13.6</v>
       </c>
       <c r="E102" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F102" t="n">
-        <v>4486.4852</v>
+        <v>8278.2714</v>
       </c>
       <c r="G102" t="n">
         <v>13.58500000000002</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E103" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F103" t="n">
-        <v>18.6015</v>
+        <v>4486.4852</v>
       </c>
       <c r="G103" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>13.4</v>
       </c>
       <c r="C104" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D104" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E104" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F104" t="n">
-        <v>20243.00133455882</v>
+        <v>18.6015</v>
       </c>
       <c r="G104" t="n">
-        <v>13.57333333333335</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C105" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D105" t="n">
         <v>13.6</v>
       </c>
       <c r="E105" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>20243.00133455882</v>
       </c>
       <c r="G105" t="n">
         <v>13.57333333333335</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3127,9 +3444,12 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>13.57666666666669</v>
+        <v>13.57333333333335</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>13.6</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>13.57833333333335</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>13.6</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>13.58166666666669</v>
+        <v>13.57833333333335</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>13.6</v>
       </c>
       <c r="F109" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
         <v>13.58166666666669</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>13.6</v>
       </c>
       <c r="F110" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G110" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58166666666669</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>13.6</v>
       </c>
       <c r="C111" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D111" t="n">
         <v>13.6</v>
       </c>
       <c r="E111" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F111" t="n">
-        <v>444.4082</v>
+        <v>72</v>
       </c>
       <c r="G111" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>13.6</v>
       </c>
       <c r="C112" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D112" t="n">
         <v>13.6</v>
       </c>
       <c r="E112" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>444.4082</v>
       </c>
       <c r="G112" t="n">
         <v>13.58666666666669</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>13.6</v>
       </c>
       <c r="F113" t="n">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
         <v>13.58666666666669</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="G114" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>13.6</v>
       </c>
       <c r="F115" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G115" t="n">
-        <v>13.59000000000002</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>13.6</v>
       </c>
       <c r="F116" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G116" t="n">
-        <v>13.58833333333336</v>
+        <v>13.59000000000002</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>13.6</v>
       </c>
       <c r="F117" t="n">
-        <v>2873.8235</v>
+        <v>66</v>
       </c>
       <c r="G117" t="n">
         <v>13.58833333333336</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
         <v>13.6</v>
@@ -3433,15 +3786,18 @@
         <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>28.1812</v>
+        <v>2873.8235</v>
       </c>
       <c r="G118" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58833333333336</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>13.5</v>
       </c>
       <c r="C119" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D119" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E119" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>27648.0652</v>
+        <v>28.1812</v>
       </c>
       <c r="G119" t="n">
-        <v>13.58333333333336</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C120" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E120" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F120" t="n">
-        <v>269256.4243</v>
+        <v>27648.0652</v>
       </c>
       <c r="G120" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58333333333336</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C121" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D121" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E121" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F121" t="n">
-        <v>75471.6333</v>
+        <v>269256.4243</v>
       </c>
       <c r="G121" t="n">
-        <v>13.57166666666669</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F122" t="n">
-        <v>7518.7969</v>
+        <v>75471.6333</v>
       </c>
       <c r="G122" t="n">
-        <v>13.56833333333335</v>
+        <v>13.57166666666669</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>13.3</v>
       </c>
       <c r="C123" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D123" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E123" t="n">
         <v>13.3</v>
       </c>
       <c r="F123" t="n">
-        <v>142686.5059656716</v>
+        <v>7518.7969</v>
       </c>
       <c r="G123" t="n">
-        <v>13.56500000000002</v>
+        <v>13.56833333333335</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C124" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D124" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E124" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F124" t="n">
-        <v>158504.6100343284</v>
+        <v>142686.5059656716</v>
       </c>
       <c r="G124" t="n">
-        <v>13.56166666666669</v>
+        <v>13.56500000000002</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C125" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D125" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E125" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>158504.6100343284</v>
       </c>
       <c r="G125" t="n">
-        <v>13.56000000000002</v>
+        <v>13.56166666666669</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F126" t="n">
-        <v>141.6666</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>13.55666666666668</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>13.5</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>141.6666</v>
       </c>
       <c r="G127" t="n">
-        <v>13.55333333333335</v>
+        <v>13.55666666666668</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C128" t="n">
         <v>13.5</v>
@@ -3693,15 +4076,18 @@
         <v>13.5</v>
       </c>
       <c r="E128" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F128" t="n">
-        <v>306785.1839</v>
+        <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>13.55000000000002</v>
+        <v>13.55333333333335</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D129" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E129" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F129" t="n">
-        <v>44</v>
+        <v>306785.1839</v>
       </c>
       <c r="G129" t="n">
-        <v>13.54500000000002</v>
+        <v>13.55000000000002</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3742,18 +4131,21 @@
         <v>13.4</v>
       </c>
       <c r="D130" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E130" t="n">
         <v>13.4</v>
       </c>
       <c r="F130" t="n">
-        <v>5933.028</v>
+        <v>44</v>
       </c>
       <c r="G130" t="n">
-        <v>13.54000000000002</v>
+        <v>13.54500000000002</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D131" t="n">
         <v>13.5</v>
       </c>
       <c r="E131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>5933.028</v>
       </c>
       <c r="G131" t="n">
-        <v>13.53666666666668</v>
+        <v>13.54000000000002</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F132" t="n">
-        <v>75670.03170000001</v>
+        <v>20</v>
       </c>
       <c r="G132" t="n">
-        <v>13.53333333333335</v>
+        <v>13.53666666666668</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>75670.03170000001</v>
       </c>
       <c r="G133" t="n">
-        <v>13.52666666666668</v>
+        <v>13.53333333333335</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="E134" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>35504.88390073529</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C135" t="n">
         <v>13.6</v>
@@ -3875,15 +4279,18 @@
         <v>13.6</v>
       </c>
       <c r="E135" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>35504.88390073529</v>
       </c>
       <c r="G135" t="n">
-        <v>13.53000000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>13.6</v>
       </c>
       <c r="C136" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D136" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E136" t="n">
         <v>13.6</v>
       </c>
       <c r="F136" t="n">
-        <v>2599.428664705883</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>13.53166666666668</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>13.6</v>
       </c>
       <c r="F137" t="n">
-        <v>28244.2477</v>
+        <v>2599.428664705883</v>
       </c>
       <c r="G137" t="n">
-        <v>13.53833333333335</v>
+        <v>13.53166666666668</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>13.6</v>
       </c>
       <c r="C138" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D138" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E138" t="n">
         <v>13.6</v>
       </c>
       <c r="F138" t="n">
-        <v>75000.00003529411</v>
+        <v>28244.2477</v>
       </c>
       <c r="G138" t="n">
-        <v>13.54000000000002</v>
+        <v>13.53833333333335</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>75000.00003529411</v>
       </c>
       <c r="G139" t="n">
-        <v>13.54333333333335</v>
+        <v>13.54000000000002</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F140" t="n">
-        <v>3566.6176</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>13.54500000000002</v>
+        <v>13.54333333333335</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>13.6</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3566.6176</v>
       </c>
       <c r="G141" t="n">
         <v>13.54500000000002</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4068,6 +4493,9 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4086,12 +4514,15 @@
         <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>5658.7073</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>13.54333333333335</v>
+        <v>13.54500000000002</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F144" t="n">
-        <v>88.23520000000001</v>
+        <v>5658.7073</v>
       </c>
       <c r="G144" t="n">
         <v>13.54333333333335</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F145" t="n">
-        <v>54397.6162</v>
+        <v>88.23520000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>13.54166666666668</v>
+        <v>13.54333333333335</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>54397.6162</v>
       </c>
       <c r="G146" t="n">
-        <v>13.54666666666668</v>
+        <v>13.54166666666668</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>13.7</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G147" t="n">
-        <v>13.55166666666668</v>
+        <v>13.54666666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>13.7</v>
       </c>
       <c r="F148" t="n">
-        <v>72.99270072992701</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>13.55500000000002</v>
+        <v>13.55166666666668</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>13.7</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G149" t="n">
-        <v>13.55666666666668</v>
+        <v>13.55500000000002</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F150" t="n">
-        <v>35416.1217</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>13.55500000000002</v>
+        <v>13.55666666666668</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>35416.1217</v>
       </c>
       <c r="G151" t="n">
         <v>13.55500000000002</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4328,6 +4783,9 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4354,6 +4812,9 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4380,30 +4841,36 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F155" t="n">
-        <v>36785.6617</v>
+        <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>13.56000000000002</v>
+        <v>13.55500000000002</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F156" t="n">
-        <v>40620.3966</v>
+        <v>36785.6617</v>
       </c>
       <c r="G156" t="n">
-        <v>13.55833333333335</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>13.5</v>
       </c>
       <c r="C157" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D157" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E157" t="n">
         <v>13.5</v>
       </c>
       <c r="F157" t="n">
-        <v>105698.5773</v>
+        <v>40620.3966</v>
       </c>
       <c r="G157" t="n">
-        <v>13.56000000000002</v>
+        <v>13.55833333333335</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4937,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C158" t="n">
         <v>13.7</v>
@@ -4473,15 +4946,18 @@
         <v>13.7</v>
       </c>
       <c r="E158" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F158" t="n">
-        <v>65148.28979927007</v>
+        <v>105698.5773</v>
       </c>
       <c r="G158" t="n">
-        <v>13.56166666666669</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>13.7</v>
       </c>
       <c r="F159" t="n">
-        <v>88.23520000000001</v>
+        <v>65148.28979927007</v>
       </c>
       <c r="G159" t="n">
-        <v>13.56333333333335</v>
+        <v>13.56166666666669</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F160" t="n">
-        <v>44</v>
+        <v>88.23520000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>13.56666666666669</v>
+        <v>13.56333333333335</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F161" t="n">
-        <v>30000</v>
+        <v>44</v>
       </c>
       <c r="G161" t="n">
-        <v>13.56833333333335</v>
+        <v>13.56666666666669</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F162" t="n">
-        <v>570.7246376811594</v>
+        <v>30000</v>
       </c>
       <c r="G162" t="n">
-        <v>13.57166666666668</v>
+        <v>13.56833333333335</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>13.8</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>570.7246376811594</v>
       </c>
       <c r="G163" t="n">
-        <v>13.57833333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>13.8</v>
       </c>
       <c r="F164" t="n">
-        <v>50526.7391</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>13.58666666666668</v>
+        <v>13.57833333333335</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F165" t="n">
-        <v>67545.5604</v>
+        <v>50526.7391</v>
       </c>
       <c r="G165" t="n">
-        <v>13.58833333333335</v>
+        <v>13.58666666666668</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>13.7</v>
       </c>
       <c r="F166" t="n">
-        <v>17477.6278</v>
+        <v>67545.5604</v>
       </c>
       <c r="G166" t="n">
-        <v>13.59000000000002</v>
+        <v>13.58833333333335</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>17477.6278</v>
       </c>
       <c r="G167" t="n">
-        <v>13.59333333333335</v>
+        <v>13.59000000000002</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>13.8</v>
       </c>
       <c r="F168" t="n">
-        <v>7910.7753</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>13.59666666666668</v>
+        <v>13.59333333333335</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>13.8</v>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>7910.7753</v>
       </c>
       <c r="G169" t="n">
-        <v>13.60000000000002</v>
+        <v>13.59666666666668</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>13.8</v>
       </c>
       <c r="F170" t="n">
-        <v>36166.5217</v>
+        <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>13.60333333333335</v>
+        <v>13.60000000000002</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>13.8</v>
       </c>
       <c r="F171" t="n">
-        <v>48293.00476231884</v>
+        <v>36166.5217</v>
       </c>
       <c r="G171" t="n">
-        <v>13.61000000000001</v>
+        <v>13.60333333333335</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>48293.00476231884</v>
       </c>
       <c r="G172" t="n">
-        <v>13.61500000000001</v>
+        <v>13.61000000000001</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>13.9</v>
       </c>
       <c r="F173" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>13.62000000000001</v>
+        <v>13.61500000000001</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F174" t="n">
-        <v>395.6268</v>
+        <v>20</v>
       </c>
       <c r="G174" t="n">
-        <v>13.62333333333334</v>
+        <v>13.62000000000001</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C175" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="D175" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E175" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F175" t="n">
-        <v>70965.98579999999</v>
+        <v>395.6268</v>
       </c>
       <c r="G175" t="n">
-        <v>13.63166666666668</v>
+        <v>13.62333333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C176" t="n">
         <v>14.1</v>
@@ -4941,15 +5468,18 @@
         <v>14.1</v>
       </c>
       <c r="E176" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F176" t="n">
-        <v>22</v>
+        <v>70965.98579999999</v>
       </c>
       <c r="G176" t="n">
-        <v>13.64000000000001</v>
+        <v>13.63166666666668</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C177" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E177" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="F177" t="n">
-        <v>3557.701</v>
+        <v>22</v>
       </c>
       <c r="G177" t="n">
-        <v>13.64500000000001</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C178" t="n">
         <v>13.9</v>
       </c>
       <c r="D178" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
         <v>13.9</v>
       </c>
       <c r="F178" t="n">
-        <v>857.812</v>
+        <v>3557.701</v>
       </c>
       <c r="G178" t="n">
-        <v>13.65000000000001</v>
+        <v>13.64500000000001</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F179" t="n">
-        <v>212.2857</v>
+        <v>857.812</v>
       </c>
       <c r="G179" t="n">
-        <v>13.66000000000001</v>
+        <v>13.65000000000001</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>14</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>212.2857</v>
       </c>
       <c r="G180" t="n">
-        <v>13.67166666666668</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5077,9 +5619,12 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>13.68500000000001</v>
+        <v>13.67166666666668</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>14</v>
       </c>
       <c r="F182" t="n">
-        <v>19669.6463</v>
+        <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>13.69666666666668</v>
+        <v>13.68500000000001</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>19669.6463</v>
       </c>
       <c r="G183" t="n">
-        <v>13.70833333333334</v>
+        <v>13.69666666666668</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F184" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>13.71666666666668</v>
+        <v>13.70833333333334</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F185" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="G185" t="n">
-        <v>13.72500000000001</v>
+        <v>13.71666666666668</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C186" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="D186" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E186" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="F186" t="n">
-        <v>279900</v>
+        <v>11</v>
       </c>
       <c r="G186" t="n">
         <v>13.72500000000001</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,21 +5781,24 @@
         <v>14</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D187" t="n">
         <v>14</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F187" t="n">
-        <v>11</v>
+        <v>279900</v>
       </c>
       <c r="G187" t="n">
-        <v>13.73333333333334</v>
+        <v>13.72500000000001</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>236435</v>
+        <v>11</v>
       </c>
       <c r="G188" t="n">
-        <v>13.74000000000001</v>
+        <v>13.73333333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C189" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D189" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E189" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>236435</v>
       </c>
       <c r="G189" t="n">
-        <v>13.74500000000001</v>
+        <v>13.74000000000001</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C190" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D190" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E190" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>13.74833333333335</v>
+        <v>13.74500000000001</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C191" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D191" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E191" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F191" t="n">
-        <v>14204.705</v>
+        <v>54</v>
       </c>
       <c r="G191" t="n">
-        <v>13.75166666666668</v>
+        <v>13.74833333333335</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F192" t="n">
-        <v>4694.8015</v>
+        <v>14204.705</v>
       </c>
       <c r="G192" t="n">
-        <v>13.75833333333335</v>
+        <v>13.75166666666668</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>1165.9467</v>
+        <v>4694.8015</v>
       </c>
       <c r="G193" t="n">
-        <v>13.76666666666668</v>
+        <v>13.75833333333335</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>8632.0054</v>
+        <v>1165.9467</v>
       </c>
       <c r="G194" t="n">
-        <v>13.77000000000001</v>
+        <v>13.76666666666668</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F195" t="n">
-        <v>11</v>
+        <v>8632.0054</v>
       </c>
       <c r="G195" t="n">
-        <v>13.77166666666668</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F196" t="n">
-        <v>9313.262000000001</v>
+        <v>11</v>
       </c>
       <c r="G196" t="n">
-        <v>13.77000000000001</v>
+        <v>13.77166666666668</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>13.6</v>
       </c>
       <c r="F197" t="n">
-        <v>1980</v>
+        <v>9313.262000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>13.76833333333335</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F198" t="n">
-        <v>11</v>
+        <v>1980</v>
       </c>
       <c r="G198" t="n">
-        <v>13.77000000000001</v>
+        <v>13.76833333333335</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>13.7</v>
       </c>
       <c r="F199" t="n">
-        <v>22198.2887</v>
+        <v>11</v>
       </c>
       <c r="G199" t="n">
         <v>13.77000000000001</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>22198.2887</v>
       </c>
       <c r="G200" t="n">
-        <v>13.77333333333334</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>13.8</v>
       </c>
       <c r="F201" t="n">
-        <v>68435.7246</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>13.77666666666668</v>
+        <v>13.77333333333334</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>13.8</v>
       </c>
       <c r="F202" t="n">
-        <v>4038.8768</v>
+        <v>68435.7246</v>
       </c>
       <c r="G202" t="n">
-        <v>13.78000000000001</v>
+        <v>13.77666666666668</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>4038.8768</v>
       </c>
       <c r="G203" t="n">
-        <v>13.78500000000001</v>
+        <v>13.78000000000001</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>13.9</v>
       </c>
       <c r="F204" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>13.78833333333334</v>
+        <v>13.78500000000001</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F205" t="n">
-        <v>44.4444</v>
+        <v>50000</v>
       </c>
       <c r="G205" t="n">
-        <v>13.79166666666667</v>
+        <v>13.78833333333334</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>40613.9613</v>
+        <v>44.4444</v>
       </c>
       <c r="G206" t="n">
-        <v>13.79333333333334</v>
+        <v>13.79166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>13.8</v>
       </c>
       <c r="F207" t="n">
-        <v>444.4444</v>
+        <v>40613.9613</v>
       </c>
       <c r="G207" t="n">
-        <v>13.795</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F208" t="n">
-        <v>34808.8288</v>
+        <v>444.4444</v>
       </c>
       <c r="G208" t="n">
         <v>13.795</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F209" t="n">
-        <v>60</v>
+        <v>34808.8288</v>
       </c>
       <c r="G209" t="n">
-        <v>13.79666666666667</v>
+        <v>13.795</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5819,21 +6448,24 @@
         <v>13.8</v>
       </c>
       <c r="C210" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D210" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E210" t="n">
         <v>13.8</v>
       </c>
       <c r="F210" t="n">
-        <v>2206.0425</v>
+        <v>60</v>
       </c>
       <c r="G210" t="n">
-        <v>13.80333333333333</v>
+        <v>13.79666666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C211" t="n">
         <v>13.9</v>
       </c>
-      <c r="C211" t="n">
-        <v>14.1</v>
-      </c>
       <c r="D211" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E211" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F211" t="n">
-        <v>85235.8855</v>
+        <v>2206.0425</v>
       </c>
       <c r="G211" t="n">
-        <v>13.81</v>
+        <v>13.80333333333333</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +6503,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C212" t="n">
         <v>14.1</v>
@@ -5877,15 +6512,18 @@
         <v>14.1</v>
       </c>
       <c r="E212" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F212" t="n">
-        <v>133873.1098</v>
+        <v>85235.8855</v>
       </c>
       <c r="G212" t="n">
-        <v>13.81666666666667</v>
+        <v>13.81</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>14.1</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>133873.1098</v>
       </c>
       <c r="G213" t="n">
-        <v>13.82333333333333</v>
+        <v>13.81666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>14.1</v>
       </c>
       <c r="F214" t="n">
-        <v>15416.7461</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>13.83</v>
+        <v>13.82333333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>14.1</v>
       </c>
       <c r="C215" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D215" t="n">
         <v>14.1</v>
       </c>
       <c r="E215" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F215" t="n">
-        <v>104095.8497</v>
+        <v>15416.7461</v>
       </c>
       <c r="G215" t="n">
-        <v>13.83666666666667</v>
+        <v>13.83</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C216" t="n">
         <v>14</v>
       </c>
-      <c r="C216" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D216" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E216" t="n">
         <v>14</v>
       </c>
-      <c r="E216" t="n">
-        <v>13.8</v>
-      </c>
       <c r="F216" t="n">
-        <v>136635.004</v>
+        <v>104095.8497</v>
       </c>
       <c r="G216" t="n">
-        <v>13.84166666666667</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="C217" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D217" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E217" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>136635.004</v>
       </c>
       <c r="G217" t="n">
-        <v>13.85</v>
+        <v>13.84166666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F218" t="n">
-        <v>2132.695</v>
+        <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>13.85666666666666</v>
+        <v>13.85</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="F219" t="n">
-        <v>4444.4444</v>
+        <v>2132.695</v>
       </c>
       <c r="G219" t="n">
-        <v>13.86</v>
+        <v>13.85666666666666</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,25 +6735,28 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F220" t="n">
-        <v>46034.6932</v>
+        <v>4444.4444</v>
       </c>
       <c r="G220" t="n">
-        <v>13.85833333333333</v>
+        <v>13.86</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6105,21 +6767,24 @@
         <v>13.7</v>
       </c>
       <c r="C221" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D221" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="E221" t="n">
         <v>13.7</v>
       </c>
       <c r="F221" t="n">
-        <v>5010</v>
+        <v>46034.6932</v>
       </c>
       <c r="G221" t="n">
-        <v>13.86166666666666</v>
+        <v>13.85833333333333</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6137,15 +6802,18 @@
         <v>13.9</v>
       </c>
       <c r="E222" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F222" t="n">
-        <v>299920</v>
+        <v>5010</v>
       </c>
       <c r="G222" t="n">
-        <v>13.86333333333333</v>
+        <v>13.86166666666666</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C223" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.4</v>
       </c>
       <c r="F223" t="n">
-        <v>299900</v>
+        <v>299920</v>
       </c>
       <c r="G223" t="n">
-        <v>13.85666666666666</v>
+        <v>13.86333333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>13.5</v>
       </c>
       <c r="C224" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="D224" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E224" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F224" t="n">
-        <v>969.134</v>
+        <v>299900</v>
       </c>
       <c r="G224" t="n">
         <v>13.85666666666666</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C225" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D225" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E225" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F225" t="n">
-        <v>12</v>
+        <v>969.134</v>
       </c>
       <c r="G225" t="n">
-        <v>13.855</v>
+        <v>13.85666666666666</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F226" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>13.85166666666666</v>
+        <v>13.855</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F227" t="n">
-        <v>18.1822</v>
+        <v>11.97</v>
       </c>
       <c r="G227" t="n">
-        <v>13.84833333333333</v>
+        <v>13.85166666666666</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>13.6</v>
       </c>
       <c r="F228" t="n">
-        <v>864.5856</v>
+        <v>18.1822</v>
       </c>
       <c r="G228" t="n">
-        <v>13.845</v>
+        <v>13.84833333333333</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="C229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F229" t="n">
-        <v>80</v>
+        <v>864.5856</v>
       </c>
       <c r="G229" t="n">
-        <v>13.84666666666667</v>
+        <v>13.845</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="E230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="F230" t="n">
-        <v>38692.6618</v>
+        <v>80</v>
       </c>
       <c r="G230" t="n">
-        <v>13.84333333333333</v>
+        <v>13.84666666666667</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>38692.6618</v>
       </c>
       <c r="G231" t="n">
-        <v>13.84166666666667</v>
+        <v>13.84333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F232" t="n">
-        <v>21384.3708</v>
+        <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>13.83666666666667</v>
+        <v>13.84166666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6417,21 +7115,24 @@
         <v>13.6</v>
       </c>
       <c r="C233" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D233" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E233" t="n">
         <v>13.6</v>
       </c>
       <c r="F233" t="n">
-        <v>14096.5403</v>
+        <v>21384.3708</v>
       </c>
       <c r="G233" t="n">
-        <v>13.83333333333334</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>13.6</v>
       </c>
       <c r="C234" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D234" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E234" t="n">
         <v>13.6</v>
       </c>
       <c r="F234" t="n">
-        <v>29824.8649</v>
+        <v>14096.5403</v>
       </c>
       <c r="G234" t="n">
-        <v>13.83000000000001</v>
+        <v>13.83333333333334</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F235" t="n">
-        <v>11</v>
+        <v>29824.8649</v>
       </c>
       <c r="G235" t="n">
-        <v>13.82333333333334</v>
+        <v>13.83000000000001</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6495,21 +7202,24 @@
         <v>13.7</v>
       </c>
       <c r="C236" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D236" t="n">
         <v>13.7</v>
       </c>
       <c r="E236" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F236" t="n">
-        <v>1044</v>
+        <v>11</v>
       </c>
       <c r="G236" t="n">
-        <v>13.815</v>
+        <v>13.82333333333334</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,21 +7231,24 @@
         <v>13.7</v>
       </c>
       <c r="C237" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D237" t="n">
         <v>13.7</v>
       </c>
       <c r="E237" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F237" t="n">
-        <v>10</v>
+        <v>1044</v>
       </c>
       <c r="G237" t="n">
-        <v>13.81166666666667</v>
+        <v>13.815</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C238" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D238" t="n">
         <v>13.7</v>
       </c>
       <c r="E238" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F238" t="n">
-        <v>60825.3378</v>
+        <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>13.80500000000001</v>
+        <v>13.81166666666667</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C239" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D239" t="n">
         <v>13.7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F239" t="n">
-        <v>258344.7031</v>
+        <v>60825.3378</v>
       </c>
       <c r="G239" t="n">
-        <v>13.79333333333334</v>
+        <v>13.80500000000001</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C240" t="n">
         <v>13.3</v>
       </c>
-      <c r="C240" t="n">
-        <v>13.4</v>
-      </c>
       <c r="D240" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E240" t="n">
         <v>13.3</v>
       </c>
       <c r="F240" t="n">
-        <v>14165.028</v>
+        <v>258344.7031</v>
       </c>
       <c r="G240" t="n">
-        <v>13.78333333333334</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,10 +7344,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C241" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D241" t="n">
         <v>13.4</v>
@@ -6634,12 +7356,15 @@
         <v>13.3</v>
       </c>
       <c r="F241" t="n">
-        <v>14466.5217</v>
+        <v>14165.028</v>
       </c>
       <c r="G241" t="n">
-        <v>13.77166666666667</v>
+        <v>13.78333333333334</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>13.4</v>
       </c>
       <c r="C242" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D242" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E242" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F242" t="n">
-        <v>14145.028</v>
+        <v>14466.5217</v>
       </c>
       <c r="G242" t="n">
-        <v>13.76333333333334</v>
+        <v>13.77166666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C243" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D243" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E243" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F243" t="n">
-        <v>2749.0495</v>
+        <v>14145.028</v>
       </c>
       <c r="G243" t="n">
-        <v>13.755</v>
+        <v>13.76333333333334</v>
       </c>
       <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +7431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C244" t="n">
         <v>13.6</v>
@@ -6709,15 +7440,18 @@
         <v>13.6</v>
       </c>
       <c r="E244" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F244" t="n">
-        <v>18337.647</v>
+        <v>2749.0495</v>
       </c>
       <c r="G244" t="n">
-        <v>13.74833333333334</v>
+        <v>13.755</v>
       </c>
       <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +7460,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C245" t="n">
         <v>13.6</v>
@@ -6735,15 +7469,18 @@
         <v>13.6</v>
       </c>
       <c r="E245" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F245" t="n">
-        <v>54</v>
+        <v>18337.647</v>
       </c>
       <c r="G245" t="n">
-        <v>13.74000000000001</v>
+        <v>13.74833333333334</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6755,21 +7492,24 @@
         <v>13.5</v>
       </c>
       <c r="C246" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D246" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E246" t="n">
         <v>13.5</v>
       </c>
       <c r="F246" t="n">
-        <v>4393.7777</v>
+        <v>54</v>
       </c>
       <c r="G246" t="n">
         <v>13.74000000000001</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>4393.7777</v>
       </c>
       <c r="G247" t="n">
-        <v>13.73333333333334</v>
+        <v>13.74000000000001</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,7 +7547,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C248" t="n">
         <v>13.6</v>
@@ -6813,15 +7556,18 @@
         <v>13.6</v>
       </c>
       <c r="E248" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F248" t="n">
-        <v>126566.2357</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>13.72833333333334</v>
+        <v>13.73333333333334</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>13.4</v>
       </c>
       <c r="C249" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D249" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E249" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>126566.2357</v>
       </c>
       <c r="G249" t="n">
-        <v>13.72333333333334</v>
+        <v>13.72833333333334</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C250" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="D250" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E250" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F250" t="n">
-        <v>787040.9491</v>
+        <v>10</v>
       </c>
       <c r="G250" t="n">
-        <v>13.71500000000001</v>
+        <v>13.72333333333334</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C251" t="n">
         <v>13.1</v>
       </c>
       <c r="D251" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E251" t="n">
         <v>13.1</v>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>787040.9491</v>
       </c>
       <c r="G251" t="n">
-        <v>13.70500000000001</v>
+        <v>13.71500000000001</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C252" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D252" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E252" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F252" t="n">
-        <v>6702.6873</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
-        <v>13.69666666666667</v>
+        <v>13.70500000000001</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>13.2</v>
       </c>
       <c r="C253" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="D253" t="n">
         <v>13.3</v>
       </c>
       <c r="E253" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F253" t="n">
-        <v>7029.5155</v>
+        <v>6702.6873</v>
       </c>
       <c r="G253" t="n">
-        <v>13.68333333333334</v>
+        <v>13.69666666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C254" t="n">
         <v>13</v>
       </c>
       <c r="D254" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
       </c>
       <c r="F254" t="n">
-        <v>13058.5465</v>
+        <v>7029.5155</v>
       </c>
       <c r="G254" t="n">
-        <v>13.67000000000001</v>
+        <v>13.68333333333334</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6989,21 +7753,24 @@
         <v>13</v>
       </c>
       <c r="C255" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D255" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
       </c>
       <c r="F255" t="n">
-        <v>106142.571</v>
+        <v>13058.5465</v>
       </c>
       <c r="G255" t="n">
-        <v>13.66166666666667</v>
+        <v>13.67000000000001</v>
       </c>
       <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>13</v>
+      </c>
+      <c r="C256" t="n">
         <v>13.2</v>
       </c>
-      <c r="C256" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D256" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E256" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F256" t="n">
-        <v>56797.4521</v>
+        <v>106142.571</v>
       </c>
       <c r="G256" t="n">
-        <v>13.65666666666667</v>
+        <v>13.66166666666667</v>
       </c>
       <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,7 +7808,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C257" t="n">
         <v>13.3</v>
@@ -7047,15 +7817,18 @@
         <v>13.3</v>
       </c>
       <c r="E257" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="F257" t="n">
-        <v>1223.7481</v>
+        <v>56797.4521</v>
       </c>
       <c r="G257" t="n">
-        <v>13.65166666666667</v>
+        <v>13.65666666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E258" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F258" t="n">
-        <v>1010</v>
+        <v>1223.7481</v>
       </c>
       <c r="G258" t="n">
-        <v>13.64333333333334</v>
+        <v>13.65166666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,7 +7866,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C259" t="n">
         <v>13.2</v>
@@ -7102,12 +7878,15 @@
         <v>13</v>
       </c>
       <c r="F259" t="n">
-        <v>510</v>
+        <v>1010</v>
       </c>
       <c r="G259" t="n">
-        <v>13.635</v>
+        <v>13.64333333333334</v>
       </c>
       <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7119,21 +7898,24 @@
         <v>13</v>
       </c>
       <c r="C260" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
       </c>
       <c r="F260" t="n">
-        <v>2500</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
-        <v>13.62166666666667</v>
+        <v>13.635</v>
       </c>
       <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7148,18 +7930,21 @@
         <v>13</v>
       </c>
       <c r="D261" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
       </c>
       <c r="F261" t="n">
-        <v>4530</v>
+        <v>2500</v>
       </c>
       <c r="G261" t="n">
-        <v>13.60833333333334</v>
+        <v>13.62166666666667</v>
       </c>
       <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
+        <v>13</v>
+      </c>
+      <c r="C262" t="n">
+        <v>13</v>
+      </c>
+      <c r="D262" t="n">
         <v>13.2</v>
-      </c>
-      <c r="C262" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D262" t="n">
-        <v>13.3</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
       </c>
       <c r="F262" t="n">
-        <v>1680</v>
+        <v>4530</v>
       </c>
       <c r="G262" t="n">
-        <v>13.6</v>
+        <v>13.60833333333334</v>
       </c>
       <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,7 +7982,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C263" t="n">
         <v>13.3</v>
@@ -7203,15 +7991,18 @@
         <v>13.3</v>
       </c>
       <c r="E263" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="F263" t="n">
-        <v>48268.6762</v>
+        <v>1680</v>
       </c>
       <c r="G263" t="n">
-        <v>13.59000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C264" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D264" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E264" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F264" t="n">
-        <v>10</v>
+        <v>48268.6762</v>
       </c>
       <c r="G264" t="n">
-        <v>13.58333333333334</v>
+        <v>13.59000000000001</v>
       </c>
       <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C265" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D265" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E265" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F265" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G265" t="n">
-        <v>13.57666666666667</v>
+        <v>13.58333333333334</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,7 +8069,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C266" t="n">
         <v>13.4</v>
@@ -7281,15 +8078,18 @@
         <v>13.4</v>
       </c>
       <c r="E266" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F266" t="n">
-        <v>21816.7102</v>
+        <v>18</v>
       </c>
       <c r="G266" t="n">
-        <v>13.57000000000001</v>
+        <v>13.57666666666667</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7307,15 +8107,18 @@
         <v>13.4</v>
       </c>
       <c r="E267" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F267" t="n">
-        <v>8554.717500000001</v>
+        <v>21816.7102</v>
       </c>
       <c r="G267" t="n">
-        <v>13.56333333333334</v>
+        <v>13.57000000000001</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D268" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E268" t="n">
         <v>13</v>
       </c>
-      <c r="C268" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D268" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12.8</v>
-      </c>
       <c r="F268" t="n">
-        <v>299928</v>
+        <v>8554.717500000001</v>
       </c>
       <c r="G268" t="n">
-        <v>13.55666666666667</v>
+        <v>13.56333333333334</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,7 +8156,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C269" t="n">
         <v>13.3</v>
@@ -7362,12 +8168,15 @@
         <v>12.8</v>
       </c>
       <c r="F269" t="n">
-        <v>1940</v>
+        <v>299928</v>
       </c>
       <c r="G269" t="n">
-        <v>13.54833333333334</v>
+        <v>13.55666666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,532 +8197,15 @@
         <v>12.8</v>
       </c>
       <c r="F270" t="n">
-        <v>299920</v>
+        <v>1940</v>
       </c>
       <c r="G270" t="n">
-        <v>13.53833333333334</v>
+        <v>13.54833333333334</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C271" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D271" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E271" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F271" t="n">
-        <v>34185.877</v>
-      </c>
-      <c r="G271" t="n">
-        <v>13.52333333333334</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C272" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D272" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E272" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1210</v>
-      </c>
-      <c r="G272" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C273" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D273" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E273" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F273" t="n">
-        <v>9998</v>
-      </c>
-      <c r="G273" t="n">
-        <v>13.49833333333334</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C274" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D274" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E274" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F274" t="n">
-        <v>74.6268656716418</v>
-      </c>
-      <c r="G274" t="n">
-        <v>13.48666666666667</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C275" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E275" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F275" t="n">
-        <v>96679.98603432837</v>
-      </c>
-      <c r="G275" t="n">
-        <v>13.47833333333334</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C276" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D276" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F276" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G276" t="n">
-        <v>13.47166666666667</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D277" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F277" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G277" t="n">
-        <v>13.44666666666667</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D278" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F278" t="n">
-        <v>220</v>
-      </c>
-      <c r="G278" t="n">
-        <v>13.42333333333334</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D279" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F279" t="n">
-        <v>13653.076</v>
-      </c>
-      <c r="G279" t="n">
-        <v>13.40666666666667</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>13</v>
-      </c>
-      <c r="C280" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D280" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E280" t="n">
-        <v>13</v>
-      </c>
-      <c r="F280" t="n">
-        <v>4982.7751</v>
-      </c>
-      <c r="G280" t="n">
-        <v>13.39833333333334</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C281" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D281" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E281" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F281" t="n">
-        <v>30</v>
-      </c>
-      <c r="G281" t="n">
-        <v>13.38666666666667</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C282" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D282" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E282" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F282" t="n">
-        <v>24244.3891</v>
-      </c>
-      <c r="G282" t="n">
-        <v>13.37500000000001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C283" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D283" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E283" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F283" t="n">
-        <v>20</v>
-      </c>
-      <c r="G283" t="n">
-        <v>13.37166666666667</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C284" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D284" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E284" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F284" t="n">
-        <v>10</v>
-      </c>
-      <c r="G284" t="n">
-        <v>13.36333333333334</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C285" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D285" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E285" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F285" t="n">
-        <v>219630.5164</v>
-      </c>
-      <c r="G285" t="n">
-        <v>13.35833333333334</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C286" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D286" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E286" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F286" t="n">
-        <v>236</v>
-      </c>
-      <c r="G286" t="n">
-        <v>13.35500000000001</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1879.6992</v>
-      </c>
-      <c r="G287" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C288" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D288" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E288" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F288" t="n">
-        <v>10</v>
-      </c>
-      <c r="G288" t="n">
-        <v>13.345</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C289" t="n">
-        <v>13</v>
-      </c>
-      <c r="D289" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E289" t="n">
-        <v>13</v>
-      </c>
-      <c r="F289" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G289" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C290" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E290" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F290" t="n">
-        <v>10</v>
-      </c>
-      <c r="G290" t="n">
-        <v>13.325</v>
-      </c>
-      <c r="H290" t="n">
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
